--- a/inputs/_Data_Try_2.xlsx
+++ b/inputs/_Data_Try_2.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spyre\Downloads\PhysLabs\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C9BAC6-5082-4CDC-8032-BA3467D06C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5F586C-C3E0-43FA-AE40-5BB9C3769CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>Color</t>
   </si>
@@ -44,6 +56,12 @@
   </si>
   <si>
     <t>Yellow</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -5206,15 +5224,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5224,8 +5242,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5235,8 +5259,15 @@
       <c r="C2">
         <v>1.35</v>
       </c>
+      <c r="D2">
+        <v>22000</v>
+      </c>
+      <c r="E2">
+        <f>ABS(B2-C2)/D2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5246,8 +5277,15 @@
       <c r="C3">
         <v>1.61</v>
       </c>
+      <c r="D3">
+        <v>22000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E43" si="0">ABS(B3-C3)/D3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5257,8 +5295,15 @@
       <c r="C4">
         <v>2.11</v>
       </c>
+      <c r="D4">
+        <v>22000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5268,8 +5313,15 @@
       <c r="C5">
         <v>3.35</v>
       </c>
+      <c r="D5">
+        <v>22000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.3636363636363643E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -5279,8 +5331,15 @@
       <c r="C6">
         <v>5.59</v>
       </c>
+      <c r="D6">
+        <v>22000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.3272727272727272E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -5290,8 +5349,15 @@
       <c r="C7">
         <v>8.43</v>
       </c>
+      <c r="D7">
+        <v>22000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.6045454545454543E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -5301,8 +5367,15 @@
       <c r="C8">
         <v>10.44</v>
       </c>
+      <c r="D8">
+        <v>22000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.5136363636363636E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -5312,8 +5385,15 @@
       <c r="C9">
         <v>12.87</v>
       </c>
+      <c r="D9">
+        <v>22000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.6090909090909087E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -5323,8 +5403,15 @@
       <c r="C10">
         <v>15.85</v>
       </c>
+      <c r="D10">
+        <v>22000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.9590909090909085E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5334,8 +5421,15 @@
       <c r="C11">
         <v>1.34</v>
       </c>
+      <c r="D11">
+        <v>22000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5345,8 +5439,15 @@
       <c r="C12">
         <v>2.59</v>
       </c>
+      <c r="D12">
+        <v>22000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.7727272727272718E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5356,8 +5457,15 @@
       <c r="C13">
         <v>4.91</v>
       </c>
+      <c r="D13">
+        <v>22000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001E-4</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5367,8 +5475,15 @@
       <c r="C14">
         <v>7.37</v>
       </c>
+      <c r="D14">
+        <v>22000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.5090909090909092E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5378,8 +5493,15 @@
       <c r="C15">
         <v>10.48</v>
       </c>
+      <c r="D15">
+        <v>22000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.9136363636363636E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5389,8 +5511,15 @@
       <c r="C16">
         <v>12.72</v>
       </c>
+      <c r="D16">
+        <v>22000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.9272727272727272E-4</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5400,8 +5529,15 @@
       <c r="C17">
         <v>16.34</v>
       </c>
+      <c r="D17">
+        <v>22000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>6.5681818181818181E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5411,8 +5547,15 @@
       <c r="C18">
         <v>17.48</v>
       </c>
+      <c r="D18">
+        <v>22000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.081818181818182E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -5422,8 +5565,15 @@
       <c r="C19">
         <v>1.26</v>
       </c>
+      <c r="D19">
+        <v>22000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -5433,8 +5583,15 @@
       <c r="C20">
         <v>2.52</v>
       </c>
+      <c r="D20">
+        <v>22000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>8.1818181818181897E-6</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -5444,8 +5601,15 @@
       <c r="C21">
         <v>4.68</v>
       </c>
+      <c r="D21">
+        <v>22000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.0136363636363634E-4</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -5455,8 +5619,15 @@
       <c r="C22">
         <v>7</v>
       </c>
+      <c r="D22">
+        <v>22000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.0545454545454542E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -5466,8 +5637,15 @@
       <c r="C23">
         <v>10.210000000000001</v>
       </c>
+      <c r="D23">
+        <v>22000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3.5045454545454551E-4</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -5477,8 +5655,15 @@
       <c r="C24">
         <v>12.38</v>
       </c>
+      <c r="D24">
+        <v>22000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.4863636363636367E-4</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -5488,8 +5673,15 @@
       <c r="C25">
         <v>13.95</v>
       </c>
+      <c r="D25">
+        <v>22000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5.195454545454545E-4</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -5499,8 +5691,15 @@
       <c r="C26">
         <v>16.309999999999999</v>
       </c>
+      <c r="D26">
+        <v>22000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6.2636363636363638E-4</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -5510,8 +5709,15 @@
       <c r="C27">
         <v>1.46</v>
       </c>
+      <c r="D27">
+        <v>22000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5521,8 +5727,15 @@
       <c r="C28">
         <v>1.27</v>
       </c>
+      <c r="D28">
+        <v>22000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5532,8 +5745,15 @@
       <c r="C29">
         <v>2.2599999999999998</v>
       </c>
+      <c r="D29">
+        <v>22000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2.4545454545454535E-5</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -5543,8 +5763,15 @@
       <c r="C30">
         <v>4.33</v>
       </c>
+      <c r="D30">
+        <v>22000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.1500000000000002E-4</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5554,8 +5781,15 @@
       <c r="C31">
         <v>6.67</v>
       </c>
+      <c r="D31">
+        <v>22000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.1954545454545455E-4</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5565,8 +5799,15 @@
       <c r="C32">
         <v>9.4</v>
       </c>
+      <c r="D32">
+        <v>22000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>3.427272727272727E-4</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -5576,8 +5817,15 @@
       <c r="C33">
         <v>11.99</v>
       </c>
+      <c r="D33">
+        <v>22000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>4.6000000000000007E-4</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -5587,8 +5835,15 @@
       <c r="C34">
         <v>14.15</v>
       </c>
+      <c r="D34">
+        <v>22000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>5.5772727272727267E-4</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -5598,8 +5853,15 @@
       <c r="C35">
         <v>16.399999999999999</v>
       </c>
+      <c r="D35">
+        <v>22000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>6.5954545454545443E-4</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -5609,8 +5871,15 @@
       <c r="C36">
         <v>1.26</v>
       </c>
+      <c r="D36">
+        <v>22000</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -5620,8 +5889,15 @@
       <c r="C37">
         <v>1.49</v>
       </c>
+      <c r="D37">
+        <v>22000</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5631,8 +5907,15 @@
       <c r="C38">
         <v>3.93</v>
       </c>
+      <c r="D38">
+        <v>22000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>9.772727272727274E-5</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -5642,8 +5925,15 @@
       <c r="C39">
         <v>5.58</v>
       </c>
+      <c r="D39">
+        <v>22000</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.7136363636363635E-4</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5653,8 +5943,15 @@
       <c r="C40">
         <v>7.79</v>
       </c>
+      <c r="D40">
+        <v>22000</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>2.7090909090909091E-4</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5664,8 +5961,15 @@
       <c r="C41">
         <v>10.44</v>
       </c>
+      <c r="D41">
+        <v>22000</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>3.9045454545454545E-4</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -5675,8 +5979,15 @@
       <c r="C42">
         <v>13.38</v>
       </c>
+      <c r="D42">
+        <v>22000</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5.2363636363636371E-4</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -5685,6 +5996,13 @@
       </c>
       <c r="C43">
         <v>16.12</v>
+      </c>
+      <c r="D43">
+        <v>22000</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>6.4772727272727269E-4</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/_Data_Try_2.xlsx
+++ b/inputs/_Data_Try_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spyre\Downloads\PhysLabs\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5F586C-C3E0-43FA-AE40-5BB9C3769CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31F4B4-BD0D-486A-85ED-25035B121CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -961,28 +961,28 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.4500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.48</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.5099999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.52</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.5299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,28 +997,28 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.52</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.68</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>10.210000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12.38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>13.95</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>16.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4723,7 +4723,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>530188</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4759,7 +4759,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>303978</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>74481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -5226,13 +5226,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>3.3636363636363643E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1.3272727272727272E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>2.6045454545454543E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>3.5136363636363636E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>4.6090909090909087E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>5.9590909090909085E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>3.7727272727272718E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>2.5090909090909092E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>3.9136363636363636E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>4.9272727272727272E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>6.5681818181818181E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>7.081818181818182E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -5573,151 +5573,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>2.34</v>
+        <v>1.46</v>
       </c>
       <c r="C20">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="D20">
         <v>22000</v>
       </c>
       <c r="E20">
+        <f>ABS(B20-C20)/D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>2.34</v>
+      </c>
+      <c r="C21">
+        <v>2.52</v>
+      </c>
+      <c r="D21">
+        <v>22000</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>8.1818181818181897E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>4.68</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>22000</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>1.0136363636363634E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>2.48</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>22000</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>2.0545454545454542E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>2.5</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>10.210000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>22000</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>3.5045454545454551E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>2.5099999999999998</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>12.38</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>22000</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>4.4863636363636367E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>2.52</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>13.95</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>22000</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>5.195454545454545E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>2.5299999999999998</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>16.309999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>22000</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>6.2636363636363638E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>1.46</v>
-      </c>
-      <c r="C27">
-        <v>1.46</v>
-      </c>
-      <c r="D27">
-        <v>22000</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>2.4545454545454535E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>1.1500000000000002E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>2.1954545454545455E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>3.427272727272727E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>4.6000000000000007E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>5.5772727272727267E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>6.5954545454545443E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>9.772727272727274E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1.7136363636363635E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>2.7090909090909091E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>3.9045454545454545E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>5.2363636363636371E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
